--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2302453.762904563</v>
+        <v>-2304451.435917409</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>56.43556171944124</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>130.6049775687657</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.87844664664844</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.5691721741686</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>165.8404403681495</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.9124227879787</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.11561436815803</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0314030821034</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>127.4321567831321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789601</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,19 +2530,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329028</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789537</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463108</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789529</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,19 +3715,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373713</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789545</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.833184497836</v>
+        <v>544.1329001935449</v>
       </c>
       <c r="C2" t="n">
-        <v>1310.833184497836</v>
+        <v>544.1329001935449</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>185.8672015867944</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4367,13 +4367,13 @@
         <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.433024561957</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4510,16 +4510,16 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334911</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2220.843019855343</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1889.780132511772</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4984,25 +4984,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5282,7 +5282,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5370,7 +5370,7 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5476,10 +5476,10 @@
         <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5604,7 +5604,7 @@
         <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
         <v>1797.533454227377</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1124.545030325236</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5932,25 +5932,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514088</v>
@@ -5996,43 +5996,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F25" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
         <v>709.8489468649691</v>
@@ -6178,7 +6178,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
         <v>1304.027639859417</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,7 +6221,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,10 +6230,10 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6318,13 +6318,13 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6558,7 +6558,7 @@
         <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,13 +6640,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6792,10 +6792,10 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -7029,13 +7029,13 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083206</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7269,7 +7269,7 @@
         <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,7 +7333,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7503,10 +7503,10 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7737,10 +7737,10 @@
         <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504494</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>274.3657496970643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>274.3657496970643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>251.3253925034961</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
-        <v>125.133230616595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.08701998770448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800785</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>158.8051956154452</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.67825230693373</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>124.7054865406959</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26387,7 +26387,7 @@
         <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99193.6337742231</v>
+        <v>99193.63377422313</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26430,25 +26430,25 @@
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="J4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="L4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732796</v>
@@ -26482,22 +26482,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="K5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="J5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-772020.591052177</v>
+        <v>-772234.0030420558</v>
       </c>
       <c r="C6" t="n">
         <v>-230776.1267793303</v>
@@ -26528,28 +26528,28 @@
         <v>-230776.1267793303</v>
       </c>
       <c r="E6" t="n">
-        <v>-625064.0940816202</v>
+        <v>-625161.5532075923</v>
       </c>
       <c r="F6" t="n">
-        <v>-99904.05760472412</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="G6" t="n">
-        <v>-99904.05760472408</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="H6" t="n">
-        <v>-99904.0576047241</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="I6" t="n">
         <v>-182556.1368210659</v>
       </c>
       <c r="J6" t="n">
-        <v>-304473.8439099462</v>
+        <v>-304473.8439099463</v>
       </c>
       <c r="K6" t="n">
+        <v>-128050.6247173534</v>
+      </c>
+      <c r="L6" t="n">
         <v>-128050.6247173533</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-128050.6247173534</v>
       </c>
       <c r="M6" t="n">
         <v>-262851.6399511906</v>
@@ -26704,22 +26704,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>326.2982799440393</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.3594920094051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>205.6226354013327</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.16466948931196</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.9968953246364</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.23311616204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.575272440822033</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>270.6105755486123</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35972,10 +35972,10 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>499.3100716807072</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36598,7 +36598,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221117</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36926,10 +36926,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>481.459164628589</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37637,10 +37637,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>481.459164628589</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
